--- a/QC/Sure/Sure Automation/Documents/Order Management/New Service Order/NewServiceOrderTransactions.xlsx
+++ b/QC/Sure/Sure Automation/Documents/Order Management/New Service Order/NewServiceOrderTransactions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
     <t>OEM-7986</t>
   </si>
   <si>
-    <t>Verify the plan display in screen with customer type qualifiers as 'VIP'.</t>
+    <t>Verify the plan display in screen with customer type qualifiers as 'VIP'.verify</t>
   </si>
   <si>
     <t>STP-39</t>
@@ -1138,9 +1138,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1205,14 +1205,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,90 +1230,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1326,7 +1250,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,9 +1341,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,7 +1376,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,103 +1544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,55 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,11 +1570,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1603,21 +1624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1627,17 +1633,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,72 +1667,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1730,89 +1730,89 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1894,12 +1894,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -2345,7 +2345,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
